--- a/FRONTEND/public/templates/Sample_Employees_Template.xlsx
+++ b/FRONTEND/public/templates/Sample_Employees_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\Desktop\Concept Promotions\ConceptPromotions_Website\FRONTEND\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE3D859-901C-415D-81D5-822BD001F9D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B98B71-9BDF-4AAA-8E35-99BA7AB46B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
